--- a/data/golf_scores1.xlsx
+++ b/data/golf_scores1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\golf-competition-management\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A09A0F88-8EC5-48F6-8B42-8965832CF968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF203CB-CF63-4198-950D-02359DC977A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -160,6 +160,93 @@
   </si>
   <si>
     <t>competition_id</t>
+  </si>
+  <si>
+    <t>永易　研二</t>
+    <rPh sb="0" eb="2">
+      <t>ナガヤス</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>青山　勝哉</t>
+    <rPh sb="0" eb="2">
+      <t>アオヤマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カツヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>石橋　晃</t>
+    <rPh sb="0" eb="2">
+      <t>イシバシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アキラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鈴木　貴文</t>
+    <rPh sb="0" eb="2">
+      <t>スズキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タカフミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>加茂ゴルフ俱楽部</t>
+    <rPh sb="0" eb="2">
+      <t>カモ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>クラブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>グリッサンドゴルフクラブ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>佐々木　雄</t>
+    <rPh sb="0" eb="3">
+      <t>ササキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ユウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中尾　天哉</t>
+    <rPh sb="0" eb="2">
+      <t>ナカオ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山口　敏彦</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマグチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トシヒコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -224,12 +311,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -532,15 +622,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
@@ -550,7 +640,7 @@
       <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -580,7 +670,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2">
         <v>45563</v>
@@ -612,7 +702,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2">
         <v>45563</v>
@@ -644,7 +734,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2">
         <v>45563</v>
@@ -676,7 +766,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2">
         <v>45563</v>
@@ -708,7 +798,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2">
         <v>45563</v>
@@ -740,7 +830,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2">
         <v>45563</v>
@@ -758,14 +848,14 @@
         <v>55</v>
       </c>
       <c r="H7">
-        <f>SUM(F7:G7)</f>
+        <f t="shared" ref="H7:H41" si="0">SUM(F7:G7)</f>
         <v>120</v>
       </c>
       <c r="I7">
         <v>43.2</v>
       </c>
       <c r="J7">
-        <f>H7-I7</f>
+        <f t="shared" ref="J7:J41" si="1">H7-I7</f>
         <v>76.8</v>
       </c>
     </row>
@@ -774,7 +864,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2">
         <v>45563</v>
@@ -792,14 +882,14 @@
         <v>58</v>
       </c>
       <c r="H8">
-        <f>SUM(F8:G8)</f>
+        <f t="shared" si="0"/>
         <v>111</v>
       </c>
       <c r="I8">
         <v>33.6</v>
       </c>
       <c r="J8">
-        <f>H8-I8</f>
+        <f t="shared" si="1"/>
         <v>77.400000000000006</v>
       </c>
     </row>
@@ -808,7 +898,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2">
         <v>45563</v>
@@ -826,14 +916,14 @@
         <v>45</v>
       </c>
       <c r="H9">
-        <f>SUM(F9:G9)</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="I9">
         <v>14.4</v>
       </c>
       <c r="J9">
-        <f>H9-I9</f>
+        <f t="shared" si="1"/>
         <v>77.599999999999994</v>
       </c>
     </row>
@@ -842,7 +932,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2">
         <v>45563</v>
@@ -860,14 +950,14 @@
         <v>51</v>
       </c>
       <c r="H10">
-        <f>SUM(F10:G10)</f>
+        <f t="shared" si="0"/>
         <v>106</v>
       </c>
       <c r="I10">
         <v>25.2</v>
       </c>
       <c r="J10">
-        <f>H10-I10</f>
+        <f t="shared" si="1"/>
         <v>80.8</v>
       </c>
     </row>
@@ -876,7 +966,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2">
         <v>45563</v>
@@ -894,15 +984,1035 @@
         <v>57</v>
       </c>
       <c r="H11">
-        <f>SUM(F11:G11)</f>
+        <f t="shared" si="0"/>
         <v>115</v>
       </c>
       <c r="I11">
         <v>30</v>
       </c>
       <c r="J11">
-        <f>H11-I11</f>
+        <f t="shared" si="1"/>
         <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>49</v>
+      </c>
+      <c r="C12" s="2">
+        <v>45647</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>43</v>
+      </c>
+      <c r="G12">
+        <v>47</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="I12">
+        <v>21.6</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>68.400000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>49</v>
+      </c>
+      <c r="C13" s="2">
+        <v>45647</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>44</v>
+      </c>
+      <c r="G13">
+        <v>43</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="I13">
+        <v>16.8</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>70.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>49</v>
+      </c>
+      <c r="C14" s="2">
+        <v>45647</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14">
+        <v>45</v>
+      </c>
+      <c r="G14">
+        <v>47</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="I14">
+        <v>21.6</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>70.400000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>49</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45647</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>47</v>
+      </c>
+      <c r="G15">
+        <v>48</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="I15">
+        <v>24</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>49</v>
+      </c>
+      <c r="C16" s="2">
+        <v>45647</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16">
+        <v>46</v>
+      </c>
+      <c r="G16">
+        <v>46</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="I16">
+        <v>19.2</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>49</v>
+      </c>
+      <c r="C17" s="2">
+        <v>45647</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <v>47</v>
+      </c>
+      <c r="G17">
+        <v>53</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I17">
+        <v>26.4</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>73.599999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>49</v>
+      </c>
+      <c r="C18" s="2">
+        <v>45647</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18">
+        <v>44</v>
+      </c>
+      <c r="G18">
+        <v>44</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="I18">
+        <v>12</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>49</v>
+      </c>
+      <c r="C19" s="2">
+        <v>45647</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19">
+        <v>49</v>
+      </c>
+      <c r="G19">
+        <v>47</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="I19">
+        <v>19.2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>49</v>
+      </c>
+      <c r="C20" s="2">
+        <v>45647</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20">
+        <v>53</v>
+      </c>
+      <c r="G20">
+        <v>50</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="I20">
+        <v>24</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>49</v>
+      </c>
+      <c r="C21" s="2">
+        <v>45647</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21">
+        <v>45</v>
+      </c>
+      <c r="G21">
+        <v>49</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="I21">
+        <v>14.4</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>79.599999999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>49</v>
+      </c>
+      <c r="C22" s="2">
+        <v>45647</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22">
+        <v>59</v>
+      </c>
+      <c r="G22">
+        <v>65</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="I22">
+        <v>43.2</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>80.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>49</v>
+      </c>
+      <c r="C23" s="2">
+        <v>45647</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23">
+        <v>48</v>
+      </c>
+      <c r="G23">
+        <v>53</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="I23">
+        <v>16.8</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>84.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>47</v>
+      </c>
+      <c r="C24" s="2">
+        <v>45472</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>46</v>
+      </c>
+      <c r="G24">
+        <v>42</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="I24">
+        <v>18</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>47</v>
+      </c>
+      <c r="C25" s="2">
+        <v>45472</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25">
+        <v>50</v>
+      </c>
+      <c r="G25">
+        <v>46</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="I25">
+        <v>22.8</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>47</v>
+      </c>
+      <c r="C26" s="2">
+        <v>45472</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26">
+        <v>48</v>
+      </c>
+      <c r="G26">
+        <v>47</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="I26">
+        <v>21.6</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>73.400000000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>47</v>
+      </c>
+      <c r="C27" s="2">
+        <v>45472</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27">
+        <v>55</v>
+      </c>
+      <c r="G27">
+        <v>49</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="I27">
+        <v>28.8</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>75.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>47</v>
+      </c>
+      <c r="C28" s="2">
+        <v>45472</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28">
+        <v>58</v>
+      </c>
+      <c r="G28">
+        <v>55</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="I28">
+        <v>33.6</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>79.400000000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>47</v>
+      </c>
+      <c r="C29" s="2">
+        <v>45472</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29">
+        <v>43</v>
+      </c>
+      <c r="G29">
+        <v>51</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="I29">
+        <v>13.2</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>80.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>47</v>
+      </c>
+      <c r="C30" s="2">
+        <v>45472</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30">
+        <v>50</v>
+      </c>
+      <c r="G30">
+        <v>55</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="I30">
+        <v>21.6</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>83.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>47</v>
+      </c>
+      <c r="C31" s="2">
+        <v>45472</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31">
+        <v>75</v>
+      </c>
+      <c r="G31">
+        <v>68</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+      <c r="I31">
+        <v>49.2</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>46</v>
+      </c>
+      <c r="C32" s="2">
+        <v>45339</v>
+      </c>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <v>41</v>
+      </c>
+      <c r="G32">
+        <v>50</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="I32">
+        <v>21.6</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>69.400000000000006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>46</v>
+      </c>
+      <c r="C33" s="2">
+        <v>45339</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33">
+        <v>53</v>
+      </c>
+      <c r="G33">
+        <v>45</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="I33">
+        <v>26.4</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>71.599999999999994</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>46</v>
+      </c>
+      <c r="C34" s="2">
+        <v>45339</v>
+      </c>
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34">
+        <v>63</v>
+      </c>
+      <c r="G34">
+        <v>55</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="I34">
+        <v>45.6</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>72.400000000000006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>46</v>
+      </c>
+      <c r="C35" s="2">
+        <v>45339</v>
+      </c>
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35">
+        <v>43</v>
+      </c>
+      <c r="G35">
+        <v>42</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="I35">
+        <v>12</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>46</v>
+      </c>
+      <c r="C36" s="2">
+        <v>45339</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36">
+        <v>56</v>
+      </c>
+      <c r="G36">
+        <v>52</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="I36">
+        <v>33.6</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>74.400000000000006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>46</v>
+      </c>
+      <c r="C37" s="2">
+        <v>45339</v>
+      </c>
+      <c r="D37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37">
+        <v>58</v>
+      </c>
+      <c r="G37">
+        <v>68</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="I37">
+        <v>50.4</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>75.599999999999994</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>46</v>
+      </c>
+      <c r="C38" s="2">
+        <v>45339</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38">
+        <v>43</v>
+      </c>
+      <c r="G38">
+        <v>43</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="I38">
+        <v>9.6</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>76.400000000000006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>46</v>
+      </c>
+      <c r="C39" s="2">
+        <v>45339</v>
+      </c>
+      <c r="D39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39">
+        <v>50</v>
+      </c>
+      <c r="G39">
+        <v>48</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="I39">
+        <v>19.2</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>78.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>46</v>
+      </c>
+      <c r="C40" s="2">
+        <v>45339</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40">
+        <v>58</v>
+      </c>
+      <c r="G40">
+        <v>49</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="I40">
+        <v>21.6</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="1"/>
+        <v>85.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>46</v>
+      </c>
+      <c r="C41" s="2">
+        <v>45339</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41">
+        <v>60</v>
+      </c>
+      <c r="G41">
+        <v>64</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="I41">
+        <v>38.4</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="1"/>
+        <v>85.6</v>
       </c>
     </row>
   </sheetData>

--- a/data/golf_scores1.xlsx
+++ b/data/golf_scores1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\golf-competition-management\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF203CB-CF63-4198-950D-02359DC977A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B28BD1F-9612-4DF6-BC5A-E9CAF379965A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -622,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2015,6 +2015,40 @@
         <v>85.6</v>
       </c>
     </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>45</v>
+      </c>
+      <c r="C42" s="2">
+        <v>45253</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>44</v>
+      </c>
+      <c r="C43" s="2">
+        <v>45115</v>
+      </c>
+      <c r="D43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/golf_scores1.xlsx
+++ b/data/golf_scores1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\golf-competition-management\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B28BD1F-9612-4DF6-BC5A-E9CAF379965A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0C1101-7CDA-46F9-B302-D6277CA1B790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -245,6 +245,29 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>トシヒコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>市原ゴルフクラブ柿の木台コース</t>
+    <rPh sb="0" eb="2">
+      <t>イチハラ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>加藤　琢也</t>
+    <rPh sb="0" eb="2">
+      <t>カトウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タクヤ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -622,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:J43"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -848,14 +871,14 @@
         <v>55</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:H41" si="0">SUM(F7:G7)</f>
+        <f t="shared" ref="H7:H54" si="0">SUM(F7:G7)</f>
         <v>120</v>
       </c>
       <c r="I7">
         <v>43.2</v>
       </c>
       <c r="J7">
-        <f t="shared" ref="J7:J41" si="1">H7-I7</f>
+        <f t="shared" ref="J7:J54" si="1">H7-I7</f>
         <v>76.8</v>
       </c>
     </row>
@@ -2031,6 +2054,14 @@
       <c r="E42" t="s">
         <v>10</v>
       </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43">
@@ -2047,6 +2078,388 @@
       </c>
       <c r="E43" t="s">
         <v>12</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D44" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44">
+        <v>44</v>
+      </c>
+      <c r="G44">
+        <v>46</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="I44">
+        <v>16.8</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="1"/>
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45">
+        <v>44</v>
+      </c>
+      <c r="G45">
+        <v>47</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="I45">
+        <v>15.6</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="1"/>
+        <v>75.400000000000006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>43</v>
+      </c>
+      <c r="C46" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D46" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46">
+        <v>48</v>
+      </c>
+      <c r="G46">
+        <v>47</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="I46">
+        <v>19.2</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="1"/>
+        <v>75.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>43</v>
+      </c>
+      <c r="C47" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D47" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47">
+        <v>43</v>
+      </c>
+      <c r="G47">
+        <v>46</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="I47">
+        <v>12</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>43</v>
+      </c>
+      <c r="C48" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D48" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48">
+        <v>52</v>
+      </c>
+      <c r="G48">
+        <v>51</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="I48">
+        <v>24</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>43</v>
+      </c>
+      <c r="C49" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D49" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49">
+        <v>52</v>
+      </c>
+      <c r="G49">
+        <v>49</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="I49">
+        <v>21.6</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="1"/>
+        <v>79.400000000000006</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>43</v>
+      </c>
+      <c r="C50" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D50" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50">
+        <v>45</v>
+      </c>
+      <c r="G50">
+        <v>49</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="I50">
+        <v>14.4</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="1"/>
+        <v>79.599999999999994</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>43</v>
+      </c>
+      <c r="C51" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D51" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51">
+        <v>48</v>
+      </c>
+      <c r="G51">
+        <v>50</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="I51">
+        <v>18</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>43</v>
+      </c>
+      <c r="C52" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52">
+        <v>55</v>
+      </c>
+      <c r="G52">
+        <v>53</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="I52">
+        <v>27.6</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="1"/>
+        <v>80.400000000000006</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>43</v>
+      </c>
+      <c r="C53" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53">
+        <v>56</v>
+      </c>
+      <c r="G53">
+        <v>58</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="I53">
+        <v>32.4</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="1"/>
+        <v>81.599999999999994</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>43</v>
+      </c>
+      <c r="C54" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D54" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" t="s">
+        <v>31</v>
+      </c>
+      <c r="F54">
+        <v>60</v>
+      </c>
+      <c r="G54">
+        <v>57</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="I54">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="1"/>
+        <v>82.2</v>
       </c>
     </row>
   </sheetData>

--- a/data/golf_scores1.xlsx
+++ b/data/golf_scores1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\golf-competition-management\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0C1101-7CDA-46F9-B302-D6277CA1B790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128464D3-9E87-4D75-8751-4FC4D386A482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
@@ -268,6 +268,13 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>タクヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ムーンレイクゴルフクラブ鶴舞コース</t>
+    <rPh sb="12" eb="14">
+      <t>ツルマイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -645,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -871,14 +878,14 @@
         <v>55</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:H54" si="0">SUM(F7:G7)</f>
+        <f t="shared" ref="H7:H55" si="0">SUM(F7:G7)</f>
         <v>120</v>
       </c>
       <c r="I7">
         <v>43.2</v>
       </c>
       <c r="J7">
-        <f t="shared" ref="J7:J54" si="1">H7-I7</f>
+        <f t="shared" ref="J7:J55" si="1">H7-I7</f>
         <v>76.8</v>
       </c>
     </row>
@@ -2460,6 +2467,31 @@
       <c r="J54">
         <f t="shared" si="1"/>
         <v>82.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>42</v>
+      </c>
+      <c r="C55" s="2">
+        <v>43813</v>
+      </c>
+      <c r="D55" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/golf_scores1.xlsx
+++ b/data/golf_scores1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\golf-competition-management\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128464D3-9E87-4D75-8751-4FC4D386A482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484B8101-DF70-4D02-9A75-CA55DAA01475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -275,6 +275,231 @@
     <t>ムーンレイクゴルフクラブ鶴舞コース</t>
     <rPh sb="12" eb="14">
       <t>ツルマイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>安間　誠</t>
+    <rPh sb="0" eb="2">
+      <t>ヤスマ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マコト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>八千代</t>
+    <rPh sb="0" eb="3">
+      <t>ヤチヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレステージ（日にち不明）</t>
+    <rPh sb="7" eb="8">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>フメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>長太郎</t>
+    <rPh sb="0" eb="3">
+      <t>チョウタロウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Jゴルフ鶴ヶ島</t>
+    <rPh sb="4" eb="7">
+      <t>ツルガシマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>岩舟</t>
+    <rPh sb="0" eb="2">
+      <t>イワフネ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鶴ヶ島</t>
+    <rPh sb="0" eb="3">
+      <t>ツルガシマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>佐藤　恭彦</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョウヒコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東武藤が丘</t>
+    <rPh sb="0" eb="2">
+      <t>トウブ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>成田フェアF（日付不明）</t>
+    <rPh sb="0" eb="2">
+      <t>ナリタ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>フメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>佐原</t>
+    <rPh sb="0" eb="2">
+      <t>サワラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>柳井　耕助</t>
+    <rPh sb="0" eb="2">
+      <t>ヤナイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウスケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ミルフィーユ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>阿見</t>
+    <rPh sb="0" eb="2">
+      <t>アミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゴールデン（日付不明）</t>
+    <rPh sb="6" eb="10">
+      <t>ヒヅケフメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アスレチック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>不明</t>
+    <rPh sb="0" eb="2">
+      <t>フメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東松苑</t>
+    <rPh sb="0" eb="3">
+      <t>トウショウエン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東庄</t>
+    <rPh sb="0" eb="1">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>成田の森</t>
+    <rPh sb="0" eb="2">
+      <t>ナリタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日付・場所不明</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>バショフメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラヴィスタ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>池田　政宏</t>
+    <rPh sb="0" eb="2">
+      <t>イケダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>マサヒロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アクアライン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大熱海国際</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>アタミ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コクサイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>場所不明</t>
+    <rPh sb="0" eb="4">
+      <t>バショフメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日時・場所不明</t>
+    <rPh sb="0" eb="2">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フメイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -306,12 +531,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -341,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -350,6 +581,8 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -652,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2494,6 +2727,697 @@
         <v>0</v>
       </c>
     </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4">
+        <v>1</v>
+      </c>
+      <c r="C56" s="5">
+        <v>38781</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4">
+        <v>2</v>
+      </c>
+      <c r="C57" s="5">
+        <v>38920</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4">
+        <v>3</v>
+      </c>
+      <c r="C58" s="5">
+        <v>39046</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4">
+        <v>4</v>
+      </c>
+      <c r="C59" s="5">
+        <v>39137</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>5</v>
+      </c>
+      <c r="C60" s="2">
+        <v>39221</v>
+      </c>
+      <c r="D60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4">
+        <v>6</v>
+      </c>
+      <c r="C61" s="5">
+        <v>39319</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4">
+        <v>7</v>
+      </c>
+      <c r="C62" s="5">
+        <v>39389</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4">
+        <v>8</v>
+      </c>
+      <c r="C63" s="5">
+        <v>39494</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>9</v>
+      </c>
+      <c r="C64" s="2">
+        <v>39606</v>
+      </c>
+      <c r="D64" t="s">
+        <v>35</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4">
+        <v>10</v>
+      </c>
+      <c r="C65" s="5">
+        <v>39690</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>11</v>
+      </c>
+      <c r="C66" s="2">
+        <v>39795</v>
+      </c>
+      <c r="D66" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>12</v>
+      </c>
+      <c r="C67" s="2">
+        <v>40047</v>
+      </c>
+      <c r="D67" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>13</v>
+      </c>
+      <c r="C68" s="2">
+        <v>40152</v>
+      </c>
+      <c r="D68" t="s">
+        <v>38</v>
+      </c>
+      <c r="E68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>14</v>
+      </c>
+      <c r="C69" s="2">
+        <v>40341</v>
+      </c>
+      <c r="D69" t="s">
+        <v>39</v>
+      </c>
+      <c r="E69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4">
+        <v>15</v>
+      </c>
+      <c r="C70" s="5">
+        <v>40516</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4">
+        <v>16</v>
+      </c>
+      <c r="C71" s="5">
+        <v>40547</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>17</v>
+      </c>
+      <c r="C72" s="2">
+        <v>40600</v>
+      </c>
+      <c r="D72" t="s">
+        <v>41</v>
+      </c>
+      <c r="E72" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>18</v>
+      </c>
+      <c r="C73" s="2">
+        <v>40698</v>
+      </c>
+      <c r="D73" t="s">
+        <v>42</v>
+      </c>
+      <c r="E73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>19</v>
+      </c>
+      <c r="C74" s="2">
+        <v>40782</v>
+      </c>
+      <c r="D74" t="s">
+        <v>43</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="4">
+        <v>20</v>
+      </c>
+      <c r="C75" s="5">
+        <v>40880</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>21</v>
+      </c>
+      <c r="C76" s="2">
+        <v>40971</v>
+      </c>
+      <c r="D76" t="s">
+        <v>45</v>
+      </c>
+      <c r="E76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>22</v>
+      </c>
+      <c r="C77" s="2">
+        <v>41062</v>
+      </c>
+      <c r="D77" t="s">
+        <v>39</v>
+      </c>
+      <c r="E77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>23</v>
+      </c>
+      <c r="C78" s="2">
+        <v>41158</v>
+      </c>
+      <c r="D78" t="s">
+        <v>46</v>
+      </c>
+      <c r="E78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="4">
+        <v>24</v>
+      </c>
+      <c r="C79" s="5">
+        <v>41258</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>25</v>
+      </c>
+      <c r="C80" s="2">
+        <v>41275</v>
+      </c>
+      <c r="D80" t="s">
+        <v>47</v>
+      </c>
+      <c r="E80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>26</v>
+      </c>
+      <c r="C81" s="2">
+        <v>41517</v>
+      </c>
+      <c r="D81" t="s">
+        <v>48</v>
+      </c>
+      <c r="E81" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="4">
+        <v>27</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>28</v>
+      </c>
+      <c r="C83" s="2">
+        <v>42203</v>
+      </c>
+      <c r="D83" t="s">
+        <v>50</v>
+      </c>
+      <c r="E83" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>29</v>
+      </c>
+      <c r="C84" s="2">
+        <v>42301</v>
+      </c>
+      <c r="D84" t="s">
+        <v>51</v>
+      </c>
+      <c r="E84" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>30</v>
+      </c>
+      <c r="C85" s="2">
+        <v>42458</v>
+      </c>
+      <c r="D85" t="s">
+        <v>52</v>
+      </c>
+      <c r="E85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="4">
+        <v>31</v>
+      </c>
+      <c r="C86" s="5">
+        <v>42461</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>32</v>
+      </c>
+      <c r="C87" s="2">
+        <v>42700</v>
+      </c>
+      <c r="D87" t="s">
+        <v>58</v>
+      </c>
+      <c r="E87" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="4">
+        <v>33</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>34</v>
+      </c>
+      <c r="C89" s="2">
+        <v>42903</v>
+      </c>
+      <c r="D89" t="s">
+        <v>48</v>
+      </c>
+      <c r="E89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>35</v>
+      </c>
+      <c r="C90" s="2">
+        <v>43050</v>
+      </c>
+      <c r="D90" t="s">
+        <v>56</v>
+      </c>
+      <c r="E90" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>36</v>
+      </c>
+      <c r="C91" s="2">
+        <v>43141</v>
+      </c>
+      <c r="D91" t="s">
+        <v>54</v>
+      </c>
+      <c r="E91" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>37</v>
+      </c>
+      <c r="C92" s="2">
+        <v>43232</v>
+      </c>
+      <c r="D92" t="s">
+        <v>48</v>
+      </c>
+      <c r="E92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A93" s="4">
+        <v>92</v>
+      </c>
+      <c r="B93" s="4">
+        <v>38</v>
+      </c>
+      <c r="C93" s="5">
+        <v>43344</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A94" s="4">
+        <v>93</v>
+      </c>
+      <c r="B94" s="4">
+        <v>39</v>
+      </c>
+      <c r="C94" s="5"/>
+      <c r="D94" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>40</v>
+      </c>
+      <c r="C95" s="2">
+        <v>43540</v>
+      </c>
+      <c r="D95" t="s">
+        <v>56</v>
+      </c>
+      <c r="E95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>41</v>
+      </c>
+      <c r="C96" s="2">
+        <v>43638</v>
+      </c>
+      <c r="D96" t="s">
+        <v>57</v>
+      </c>
+      <c r="E96" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/golf_scores1.xlsx
+++ b/data/golf_scores1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\golf-competition-management\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484B8101-DF70-4D02-9A75-CA55DAA01475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC640B2-2EF4-45C1-AB14-5520123A4CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -887,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3176,7 +3176,9 @@
       <c r="B82" s="4">
         <v>27</v>
       </c>
-      <c r="C82" s="5"/>
+      <c r="C82" s="5">
+        <v>41640</v>
+      </c>
       <c r="D82" s="4" t="s">
         <v>53</v>
       </c>
@@ -3276,7 +3278,9 @@
       <c r="B88" s="4">
         <v>33</v>
       </c>
-      <c r="C88" s="5"/>
+      <c r="C88" s="5">
+        <v>42736</v>
+      </c>
       <c r="D88" s="4" t="s">
         <v>53</v>
       </c>
@@ -3376,7 +3380,9 @@
       <c r="B94" s="4">
         <v>39</v>
       </c>
-      <c r="C94" s="5"/>
+      <c r="C94" s="5">
+        <v>43466</v>
+      </c>
       <c r="D94" s="4" t="s">
         <v>53</v>
       </c>

--- a/data/golf_scores1.xlsx
+++ b/data/golf_scores1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\golf-competition-management\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC640B2-2EF4-45C1-AB14-5520123A4CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94C4D0C-D2FE-42AE-86BC-AEBA36929ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -423,16 +423,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>東庄</t>
-    <rPh sb="0" eb="1">
-      <t>ヒガシ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ソウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>成田の森</t>
     <rPh sb="0" eb="2">
       <t>ナリタ</t>
@@ -443,16 +433,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>日付・場所不明</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="3" eb="7">
-      <t>バショフメイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ラヴィスタ</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -500,6 +480,33 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>フメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エヴァンタイユゴルフクラブ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>隨縁カントリークラブ竹岡コース</t>
+    <rPh sb="0" eb="2">
+      <t>ズイエン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タケオカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東庄ゴルフ倶楽部</t>
+    <rPh sb="0" eb="1">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>クラブ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -531,7 +538,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -541,6 +548,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,7 +585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -583,6 +596,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -887,13 +903,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
@@ -2737,8 +2754,8 @@
       <c r="C56" s="5">
         <v>38781</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>58</v>
+      <c r="D56" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>17</v>
@@ -2755,7 +2772,7 @@
         <v>38920</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>24</v>
@@ -2772,7 +2789,7 @@
         <v>39046</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>14</v>
@@ -2789,7 +2806,7 @@
         <v>39137</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>19</v>
@@ -2823,7 +2840,7 @@
         <v>39319</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>14</v>
@@ -2840,7 +2857,7 @@
         <v>39389</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>12</v>
@@ -2857,7 +2874,7 @@
         <v>39494</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>12</v>
@@ -2891,7 +2908,7 @@
         <v>39690</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>14</v>
@@ -2976,7 +2993,7 @@
         <v>40516</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>17</v>
@@ -2993,7 +3010,7 @@
         <v>40547</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>40</v>
@@ -3061,7 +3078,7 @@
         <v>40880</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>19</v>
@@ -3129,7 +3146,7 @@
         <v>41258</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>14</v>
@@ -3173,16 +3190,16 @@
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82" s="6">
         <v>27</v>
       </c>
-      <c r="C82" s="5">
-        <v>41640</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E82" s="4" t="s">
+      <c r="C82" s="7">
+        <v>41839</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E82" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3214,7 +3231,7 @@
         <v>42301</v>
       </c>
       <c r="D84" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E84" t="s">
         <v>24</v>
@@ -3231,7 +3248,7 @@
         <v>42458</v>
       </c>
       <c r="D85" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E85" t="s">
         <v>10</v>
@@ -3241,16 +3258,16 @@
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86" s="6">
         <v>31</v>
       </c>
-      <c r="C86" s="5">
-        <v>42461</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E86" s="4" t="s">
+      <c r="C86" s="7">
+        <v>42539</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E86" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3258,16 +3275,16 @@
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="6">
         <v>32</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87" s="7">
         <v>42700</v>
       </c>
-      <c r="D87" t="s">
-        <v>58</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="D87" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E87" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3275,16 +3292,16 @@
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88" s="6">
         <v>33</v>
       </c>
-      <c r="C88" s="5">
-        <v>42736</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E88" s="4" t="s">
+      <c r="C88" s="7">
+        <v>42812</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E88" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3316,7 +3333,7 @@
         <v>43050</v>
       </c>
       <c r="D90" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E90" t="s">
         <v>18</v>
@@ -3333,7 +3350,7 @@
         <v>43141</v>
       </c>
       <c r="D91" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E91" t="s">
         <v>13</v>
@@ -3357,37 +3374,37 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A93" s="4">
+      <c r="A93" s="8">
         <v>92</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93" s="6">
         <v>38</v>
       </c>
-      <c r="C93" s="5">
-        <v>43344</v>
-      </c>
-      <c r="D93" s="4" t="s">
+      <c r="C93" s="7">
+        <v>43351</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A94" s="8">
+        <v>93</v>
+      </c>
+      <c r="B94" s="6">
+        <v>39</v>
+      </c>
+      <c r="C94" s="7">
+        <v>43408</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E94" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A94" s="4">
-        <v>93</v>
-      </c>
-      <c r="B94" s="4">
-        <v>39</v>
-      </c>
-      <c r="C94" s="5">
-        <v>43466</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
@@ -3401,7 +3418,7 @@
         <v>43540</v>
       </c>
       <c r="D95" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E95" t="s">
         <v>17</v>
@@ -3418,7 +3435,7 @@
         <v>43638</v>
       </c>
       <c r="D96" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E96" t="s">
         <v>19</v>

--- a/data/golf_scores1.xlsx
+++ b/data/golf_scores1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\golf-competition-management\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94C4D0C-D2FE-42AE-86BC-AEBA36929ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF98C4A6-D936-4E00-BEE5-C4864E39FA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="62">
   <si>
     <t>id</t>
   </si>
@@ -409,13 +409,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>不明</t>
-    <rPh sb="0" eb="2">
-      <t>フメイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>東松苑</t>
     <rPh sb="0" eb="3">
       <t>トウショウエン</t>
@@ -507,6 +500,20 @@
     </rPh>
     <rPh sb="5" eb="8">
       <t>クラブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>不明1</t>
+    <rPh sb="0" eb="2">
+      <t>フメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>不明2</t>
+    <rPh sb="0" eb="2">
+      <t>フメイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -585,7 +592,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -598,7 +605,6 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -903,14 +909,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="11.625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
@@ -2772,7 +2779,7 @@
         <v>38920</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>24</v>
@@ -2789,7 +2796,7 @@
         <v>39046</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>14</v>
@@ -2806,7 +2813,7 @@
         <v>39137</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>19</v>
@@ -2840,7 +2847,7 @@
         <v>39319</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>14</v>
@@ -2857,7 +2864,7 @@
         <v>39389</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>12</v>
@@ -2874,7 +2881,7 @@
         <v>39494</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>12</v>
@@ -2908,7 +2915,7 @@
         <v>39690</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>14</v>
@@ -2993,7 +3000,7 @@
         <v>40516</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>17</v>
@@ -3010,7 +3017,7 @@
         <v>40547</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>40</v>
@@ -3078,7 +3085,7 @@
         <v>40880</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>19</v>
@@ -3146,7 +3153,7 @@
         <v>41258</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>14</v>
@@ -3200,7 +3207,7 @@
         <v>41</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
@@ -3214,7 +3221,7 @@
         <v>42203</v>
       </c>
       <c r="D83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E83" t="s">
         <v>12</v>
@@ -3231,7 +3238,7 @@
         <v>42301</v>
       </c>
       <c r="D84" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E84" t="s">
         <v>24</v>
@@ -3248,7 +3255,7 @@
         <v>42458</v>
       </c>
       <c r="D85" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E85" t="s">
         <v>10</v>
@@ -3282,7 +3289,7 @@
         <v>42700</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>22</v>
@@ -3299,10 +3306,10 @@
         <v>42812</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
@@ -3333,7 +3340,7 @@
         <v>43050</v>
       </c>
       <c r="D90" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E90" t="s">
         <v>18</v>
@@ -3350,7 +3357,7 @@
         <v>43141</v>
       </c>
       <c r="D91" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E91" t="s">
         <v>13</v>
@@ -3374,7 +3381,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A93" s="8">
+      <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" s="6">
@@ -3391,7 +3398,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A94" s="8">
+      <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" s="6">
@@ -3401,10 +3408,10 @@
         <v>43408</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
@@ -3418,7 +3425,7 @@
         <v>43540</v>
       </c>
       <c r="D95" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E95" t="s">
         <v>17</v>
@@ -3435,7 +3442,7 @@
         <v>43638</v>
       </c>
       <c r="D96" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E96" t="s">
         <v>19</v>
